--- a/analysis/VAR2_v12.3/fevd_Policy_Count_Log.xlsx
+++ b/analysis/VAR2_v12.3/fevd_Policy_Count_Log.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachh\Desktop\DoW_bureaucracy_study\analysis\VAR2_v12.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCF2C0-1D0D-4021-8006-C7905266342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Warrant_Officers_Z</t>
+  </si>
+  <si>
+    <t>Policy_Count_Log</t>
+  </si>
+  <si>
+    <t>Company_Grade_Officers_Z</t>
+  </si>
+  <si>
+    <t>Total_PAS_Z</t>
+  </si>
+  <si>
+    <t>FOIA_Simple_Days_Z</t>
+  </si>
+  <si>
+    <t>Junior_Enlisted_Z</t>
+  </si>
+  <si>
+    <t>Field_Grade_Officers_Z</t>
+  </si>
+  <si>
+    <t>Total_Civilians_Z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +84,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,295 +408,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Warrant_Officers_Z</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Policy_Count_Log</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Grade_Officers_Z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PAS_Z</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FOIA_Simple_Days_Z</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Junior_Enlisted_Z</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Field_Grade_Officers_Z</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Civilians_Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.9625684352945396</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0005273894923476765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.005847735561124114</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02327916168805439</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004850265342630536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.002761830755211107</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.149209602675508e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001536897700657164</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.001033970366253249</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5487686021379697</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.96256843529453961</v>
+      </c>
+      <c r="C2">
+        <v>5.2738949234767648E-4</v>
+      </c>
+      <c r="D2">
+        <v>5.8477355611241139E-3</v>
+      </c>
+      <c r="E2">
+        <v>2.3279161688054391E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.8502653426305362E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.761830755211107E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.1492096026755079E-5</v>
+      </c>
+      <c r="I2">
+        <v>1.5368977006571639E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.033970366253249E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.54876860213796974</v>
+      </c>
+      <c r="D3">
         <v>0.3237692466296575</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.03430738046161556</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0002917580315287435</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.678890747823106e-05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0900786870429811</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001703566422515745</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3">
+        <v>3.4307380461615557E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.9175803152874352E-4</v>
+      </c>
+      <c r="G3">
+        <v>4.6788907478231063E-5</v>
+      </c>
+      <c r="H3">
+        <v>9.0078687042981095E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.7035664225157449E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.01189453862445755</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02225676134570536</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>1.189453862445755E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.225676134570536E-2</v>
+      </c>
+      <c r="D4">
         <v>0.9153930188286088</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.009473124446835001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01761386556050783</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.001170300046448106</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01255459403201143</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.009643797115425956</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E4">
+        <v>9.4731244468350007E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.7613865560507831E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.170300046448106E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.255459403201143E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.6437971154259561E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.1892651028761867</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.004341188968960619</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.007541679085238346</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6605810044323336</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04585239469555476</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.007674215564716884</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.073847282586357</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01089713179065203</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>4.3411889689606194E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.5416790852383458E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.66058100443233359</v>
+      </c>
+      <c r="F5">
+        <v>4.5852394695554757E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.6742155647168842E-3</v>
+      </c>
+      <c r="H5">
+        <v>7.3847282586357005E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.0897131790652031E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.08922942403336184</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06733696085858534</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01372573705082355</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0007553099098317917</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7905824989247329</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.001830894982967392</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03579641894981044</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0007427552898867081</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>8.9229424033361843E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.7336960858585343E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.372573705082355E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.5530990983179174E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.79058249892473287</v>
+      </c>
+      <c r="G6">
+        <v>1.830894982967392E-3</v>
+      </c>
+      <c r="H6">
+        <v>3.5796418949810442E-2</v>
+      </c>
+      <c r="I6">
+        <v>7.4275528988670806E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.1090507017347897</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1589756688687302</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.150565521396393</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7">
+        <v>0.15897566886873021</v>
+      </c>
+      <c r="D7">
+        <v>0.15056552139639301</v>
+      </c>
+      <c r="E7">
         <v>0.1159718234579456</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.01261590262904419</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4401201984148754</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.001735101640146617</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01096508185807533</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F7">
+        <v>1.261590262904419E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.44012019841487537</v>
+      </c>
+      <c r="H7">
+        <v>1.7351016401466171E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.0965081858075329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.2320650036740845</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.01356619805292691</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>1.3566198052926909E-2</v>
+      </c>
+      <c r="D8">
         <v>0.1101838426603521</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.002334398977834654</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>2.3343989778346541E-3</v>
+      </c>
+      <c r="F8">
         <v>0.1194489280280001</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.003741737766614203</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5185087586189147</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0001511322212728908</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="G8">
+        <v>3.7417377666142029E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.51850875861891466</v>
+      </c>
+      <c r="I8">
+        <v>1.511322212728908E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1999918355789738</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001231853406939177</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1273891984707906</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04229740114234583</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07830281073260235</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02585423679734388</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2948417711475456</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="B9">
+        <v>0.19999183557897379</v>
+      </c>
+      <c r="C9">
+        <v>1.231853406939177E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.12738919847079061</v>
+      </c>
+      <c r="E9">
+        <v>4.2297401142345828E-2</v>
+      </c>
+      <c r="F9">
+        <v>7.8302810732602354E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.5854236797343881E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.29484177114754562</v>
+      </c>
+      <c r="I9">
         <v>0.2300908927234589</v>
       </c>
     </row>
